--- a/02_MasterWifoMannheim/99_Backup/Course66.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course66.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D0DB4B639A2011592E88B67741FB60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB678DF8-1EB5-44E2-9E0B-E4550C1CDB37}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 500 Investments</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course introduces into the theoretical foundations of modern portfolio management and their applications. of portfolio selection, asset pricing models and their empirical test, the efficient markets hypothesis, and issues in stock portfolio management.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The course provides students with an understanding of the theoretical and conceptual foundations of modern quantitative portfolio management. investment strategies, and to interpret and evaluate them against the background of capital market theory and the efficient markets paradigm.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory Registration</t>
-  </si>
-  <si>
-    <t>Further information on registration: -</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (closed book, 60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Stefan Scharnowski</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>FWS</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Wirt. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Mathematical and Statistical Foundations (MSF), and Insurance (FIN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 500 Investments</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course introduces into the theoretical foundations of modern portfolio management and their applications. of portfolio selection, asset pricing models and their empirical test, the efficient markets hypothesis, and issues in stock portfolio management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The course provides students with an understanding of the theoretical and conceptual foundations of modern quantitative portfolio management. investment strategies, and to interpret and evaluate them against the background of capital market theory and the efficient markets paradigm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mathematical and Statistical Foundations (MSF), and Insurance (FIN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory Registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further information on registration: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (closed book, 60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Stefan Scharnowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Wirt. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
